--- a/examples/dual-analysis/dual-database.xlsx
+++ b/examples/dual-analysis/dual-database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cudmore/Sites/SanPy/examples/dual-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43F2153-04A7-9D4A-9D5C-685E373630CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C506767B-D679-5546-BC75-B8144C08F734}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="460" windowWidth="27360" windowHeight="14680" xr2:uid="{8E007D05-730B-B14A-AC67-EF192B0933CD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
   <si>
     <t>data path</t>
   </si>
@@ -165,12 +165,6 @@
     <t>dual-data</t>
   </si>
   <si>
-    <t>dVthresholdPos</t>
-  </si>
-  <si>
-    <t>minSpikeVm</t>
-  </si>
-  <si>
     <t>superior</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>cell number</t>
   </si>
   <si>
-    <t>good analysis</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -328,6 +319,18 @@
   </si>
   <si>
     <t>9b</t>
+  </si>
+  <si>
+    <t>ca spikes good</t>
+  </si>
+  <si>
+    <t>spike analysis</t>
+  </si>
+  <si>
+    <t>dvdtThreshold</t>
+  </si>
+  <si>
+    <t>vmThreshold</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,6 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,101 +738,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD968B9-DDA8-7A49-B49C-B3EBA0FD8938}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" style="8" customWidth="1"/>
-    <col min="17" max="21" width="10.83203125" style="8"/>
-    <col min="22" max="22" width="10.83203125" style="9"/>
+    <col min="3" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" customWidth="1"/>
+    <col min="9" max="10" width="8" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="8" customWidth="1"/>
+    <col min="18" max="22" width="10.83203125" style="8"/>
+    <col min="23" max="23" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>71</v>
+      <c r="O1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="W1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -838,31 +845,32 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1"/>
+      <c r="F2" s="1">
         <v>20201222</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="1">
         <v>8</v>
       </c>
-      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>1</v>
@@ -871,29 +879,30 @@
         <v>0</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <v>20201222</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="1"/>
+      <c r="J3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2</v>
@@ -901,61 +910,62 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1">
         <v>20210115</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="J4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="1">
         <v>8</v>
       </c>
-      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4">
+      <c r="N4" s="1"/>
+      <c r="O4">
         <v>10</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>0</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>5</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <v>350</v>
       </c>
-      <c r="R4" s="8">
+      <c r="S4" s="8">
         <v>300</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <v>-20</v>
       </c>
-      <c r="T4" s="8">
+      <c r="U4" s="8">
         <v>250</v>
       </c>
-      <c r="V4" s="9">
+      <c r="W4" s="9">
         <v>0.01</v>
       </c>
-      <c r="W4" s="8">
+      <c r="X4" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>3</v>
@@ -963,59 +973,60 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="1">
         <v>20210115</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="1"/>
+      <c r="J5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5">
+      <c r="N5" s="1"/>
+      <c r="O5">
         <v>10</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <v>0</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <v>5</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="R5" s="8">
         <v>350</v>
       </c>
-      <c r="R5" s="8">
+      <c r="S5" s="8">
         <v>300</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <v>-20</v>
       </c>
-      <c r="T5" s="8">
+      <c r="U5" s="8">
         <v>250</v>
       </c>
-      <c r="V5" s="9">
+      <c r="W5" s="9">
         <v>0.01</v>
       </c>
-      <c r="W5" s="8">
+      <c r="X5" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>4</v>
@@ -1023,59 +1034,60 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1">
         <v>20210115</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="1"/>
+      <c r="J6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6">
+      <c r="N6" s="1"/>
+      <c r="O6">
         <v>10</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>0</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="8">
         <v>5</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="8">
         <v>350</v>
       </c>
-      <c r="R6" s="8">
+      <c r="S6" s="8">
         <v>300</v>
       </c>
-      <c r="S6" s="8">
+      <c r="T6" s="8">
         <v>-20</v>
       </c>
-      <c r="T6" s="8">
+      <c r="U6" s="8">
         <v>250</v>
       </c>
-      <c r="V6" s="9">
+      <c r="W6" s="9">
         <v>0.01</v>
       </c>
-      <c r="W6" s="8">
+      <c r="X6" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>5</v>
@@ -1084,31 +1096,32 @@
         <v>0</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="1">
+      <c r="E7" s="10"/>
+      <c r="F7" s="1">
         <v>20210120</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="J7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="1">
         <v>9</v>
       </c>
-      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>6</v>
@@ -1117,29 +1130,30 @@
         <v>0</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="1">
+      <c r="E8" s="10"/>
+      <c r="F8" s="1">
         <v>20210120</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>3</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="1"/>
+      <c r="J8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>7</v>
@@ -1148,31 +1162,32 @@
         <v>0</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="1">
+      <c r="E9" s="10"/>
+      <c r="F9" s="1">
         <v>20210122</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>4</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="J9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="1">
         <v>9</v>
       </c>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>8</v>
@@ -1180,59 +1195,60 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1">
         <v>20210122</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>4</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="1"/>
+      <c r="J10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10">
+      <c r="N10" s="1"/>
+      <c r="O10">
         <v>10</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>0</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="8">
         <v>5</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <v>350</v>
       </c>
-      <c r="R10" s="8">
+      <c r="S10" s="8">
         <v>300</v>
       </c>
-      <c r="S10" s="8">
+      <c r="T10" s="8">
         <v>-20</v>
       </c>
-      <c r="T10" s="8">
+      <c r="U10" s="8">
         <v>250</v>
       </c>
-      <c r="V10" s="9">
+      <c r="W10" s="9">
         <v>0.01</v>
       </c>
-      <c r="W10" s="8">
+      <c r="X10" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>9</v>
@@ -1240,59 +1256,60 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1">
         <v>20210122</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>4</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="1"/>
+      <c r="J11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11">
+      <c r="N11" s="1"/>
+      <c r="O11">
         <v>10</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>0</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="8">
         <v>5</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="R11" s="8">
         <v>350</v>
       </c>
-      <c r="R11" s="8">
+      <c r="S11" s="8">
         <v>300</v>
       </c>
-      <c r="S11" s="8">
+      <c r="T11" s="8">
         <v>-20</v>
       </c>
-      <c r="T11" s="8">
+      <c r="U11" s="8">
         <v>250</v>
       </c>
-      <c r="V11" s="9">
+      <c r="W11" s="9">
         <v>0.01</v>
       </c>
-      <c r="W11" s="8">
+      <c r="X11" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>10</v>
@@ -1301,37 +1318,38 @@
         <v>-1</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
         <v>20210122</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>4</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12">
+      <c r="O12">
         <v>10</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12" s="6">
         <v>-20</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>11</v>
@@ -1339,50 +1357,51 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1">
         <v>20210122</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>5</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="1"/>
+      <c r="J13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="6">
+      <c r="N13" s="1"/>
+      <c r="P13" s="6">
         <v>-40</v>
       </c>
-      <c r="P13" s="8">
+      <c r="Q13" s="8">
         <v>5</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <v>350</v>
       </c>
-      <c r="R13" s="8">
+      <c r="S13" s="8">
         <v>300</v>
       </c>
-      <c r="S13" s="8">
+      <c r="T13" s="8">
         <v>-15</v>
       </c>
-      <c r="T13" s="8">
+      <c r="U13" s="8">
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>12</v>
@@ -1391,29 +1410,30 @@
         <v>0</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="1">
+      <c r="E14" s="10"/>
+      <c r="F14" s="1">
         <v>20210122</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>5</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="1"/>
+      <c r="J14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>13</v>
@@ -1422,33 +1442,34 @@
         <v>0</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="11">
+      <c r="E15" s="10"/>
+      <c r="F15" s="11">
         <v>20210129</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="1">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="2">
-        <v>6</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="1">
-        <v>8</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>14</v>
@@ -1456,61 +1477,62 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="1">
         <v>20210129</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="2">
-        <v>6</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16">
+      <c r="O16">
         <v>15</v>
       </c>
-      <c r="O16" s="6">
+      <c r="P16" s="6">
         <v>20</v>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="8">
         <v>5</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <v>350</v>
       </c>
-      <c r="R16" s="8">
+      <c r="S16" s="8">
         <v>300</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <v>-15</v>
       </c>
-      <c r="T16" s="8">
+      <c r="U16" s="8">
         <v>250</v>
       </c>
-      <c r="V16" s="9">
+      <c r="W16" s="9">
         <v>0.01</v>
       </c>
-      <c r="W16" s="8">
+      <c r="X16" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>15</v>
@@ -1518,50 +1540,51 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="1">
         <v>20210129</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="2">
         <v>7</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="1"/>
+      <c r="J17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="O17" s="6">
+      <c r="N17" s="1"/>
+      <c r="P17" s="6">
         <v>-50</v>
       </c>
-      <c r="P17" s="8">
+      <c r="Q17" s="8">
         <v>5</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="R17" s="8">
         <v>350</v>
       </c>
-      <c r="R17" s="8">
+      <c r="S17" s="8">
         <v>300</v>
       </c>
-      <c r="S17" s="8">
+      <c r="T17" s="8">
         <v>-15</v>
       </c>
-      <c r="T17" s="8">
+      <c r="U17" s="8">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>16</v>
@@ -1569,50 +1592,51 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1">
         <v>20210129</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>7</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="1"/>
+      <c r="J18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="O18" s="6">
+      <c r="N18" s="1"/>
+      <c r="P18" s="6">
         <v>-50</v>
       </c>
-      <c r="P18" s="8">
+      <c r="Q18" s="8">
         <v>5</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="R18" s="8">
         <v>350</v>
       </c>
-      <c r="R18" s="8">
+      <c r="S18" s="8">
         <v>300</v>
       </c>
-      <c r="S18" s="8">
+      <c r="T18" s="8">
         <v>-15</v>
       </c>
-      <c r="T18" s="8">
+      <c r="U18" s="8">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>17</v>
@@ -1621,87 +1645,91 @@
         <v>0</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="1">
+      <c r="E19" s="10"/>
+      <c r="F19" s="1">
         <v>20210129</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>8</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="1">
         <v>20210129</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>8</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="1"/>
+      <c r="J20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20">
         <v>7</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20" s="6">
         <v>-80</v>
       </c>
-      <c r="P20" s="8">
+      <c r="Q20" s="8">
         <v>5</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="R20" s="8">
         <v>300</v>
       </c>
-      <c r="R20" s="8">
+      <c r="S20" s="8">
         <v>200</v>
       </c>
-      <c r="S20" s="8">
+      <c r="T20" s="8">
         <v>-75</v>
       </c>
-      <c r="T20" s="8">
+      <c r="U20" s="8">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>19</v>
@@ -1709,50 +1737,51 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1">
         <v>20210129</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>9</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="1"/>
+      <c r="J21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="O21" s="6">
+      <c r="N21" s="1"/>
+      <c r="P21" s="6">
         <v>-50</v>
       </c>
-      <c r="P21" s="8">
+      <c r="Q21" s="8">
         <v>5</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="R21" s="8">
         <v>700</v>
       </c>
-      <c r="R21" s="8">
+      <c r="S21" s="8">
         <v>500</v>
       </c>
-      <c r="S21" s="8">
+      <c r="T21" s="8">
         <v>-10</v>
       </c>
-      <c r="T21" s="8">
+      <c r="U21" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>20</v>
@@ -1760,48 +1789,49 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1">
         <v>20210129</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>9</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="1"/>
+      <c r="J22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" s="6">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="6">
         <v>-50</v>
       </c>
-      <c r="P22" s="8">
+      <c r="Q22" s="8">
         <v>5</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="R22" s="8">
         <v>700</v>
       </c>
-      <c r="R22" s="8">
+      <c r="S22" s="8">
         <v>500</v>
       </c>
-      <c r="S22" s="8">
+      <c r="T22" s="8">
         <v>-10</v>
       </c>
-      <c r="T22" s="8">
+      <c r="U22" s="8">
         <v>500</v>
       </c>
     </row>

--- a/examples/dual-analysis/dual-database.xlsx
+++ b/examples/dual-analysis/dual-database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cudmore/Sites/SanPy/examples/dual-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C506767B-D679-5546-BC75-B8144C08F734}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565B196-FCFB-5F48-921D-A6B9938FEDCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="27360" windowHeight="14680" xr2:uid="{8E007D05-730B-B14A-AC67-EF192B0933CD}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27360" windowHeight="14680" xr2:uid="{8E007D05-730B-B14A-AC67-EF192B0933CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
   <si>
     <t>data path</t>
   </si>
@@ -331,6 +331,36 @@
   </si>
   <si>
     <t>vmThreshold</t>
+  </si>
+  <si>
+    <t>numLines</t>
+  </si>
+  <si>
+    <t>numPixels</t>
+  </si>
+  <si>
+    <t>umLength</t>
+  </si>
+  <si>
+    <t>umPerPixel</t>
+  </si>
+  <si>
+    <t>totalSeconds</t>
+  </si>
+  <si>
+    <t>secondsPerLine</t>
+  </si>
+  <si>
+    <t>linesPerSecond</t>
+  </si>
+  <si>
+    <t>firstFrameSeconds</t>
+  </si>
+  <si>
+    <t>xMaxRecordingSec</t>
+  </si>
+  <si>
+    <t>meh_later</t>
   </si>
 </sst>
 </file>
@@ -738,10 +768,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD968B9-DDA8-7A49-B49C-B3EBA0FD8938}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane xSplit="10620" topLeftCell="Y1" activePane="topRight"/>
+      <selection activeCell="D13" sqref="A13:XFD13"/>
+      <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,9 +791,11 @@
     <col min="17" max="17" width="12.83203125" style="8" customWidth="1"/>
     <col min="18" max="22" width="10.83203125" style="8"/>
     <col min="23" max="23" width="10.83203125" style="9"/>
+    <col min="28" max="28" width="10.83203125" style="9"/>
+    <col min="31" max="31" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,8 +868,35 @@
       <c r="X1" t="s">
         <v>62</v>
       </c>
+      <c r="Y1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -869,8 +930,35 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
+      <c r="Y2">
+        <v>10000</v>
+      </c>
+      <c r="Z2">
+        <v>138</v>
+      </c>
+      <c r="AA2">
+        <v>57.176000000000002</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AC2">
+        <v>35.496000000000002</v>
+      </c>
+      <c r="AD2">
+        <v>3.5496E-3</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>281.72188415596099</v>
+      </c>
+      <c r="AF2">
+        <v>0.51529999999999998</v>
+      </c>
+      <c r="AG2">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>1</v>
@@ -901,8 +989,35 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="Y3">
+        <v>10000</v>
+      </c>
+      <c r="Z3">
+        <v>146</v>
+      </c>
+      <c r="AA3">
+        <v>60.491</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AC3">
+        <v>36.295999999999999</v>
+      </c>
+      <c r="AD3">
+        <v>3.6295999999999902E-3</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>275.51245316288299</v>
+      </c>
+      <c r="AF3">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="AG3">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2</v>
@@ -964,8 +1079,35 @@
       <c r="X4" s="8">
         <v>0.5</v>
       </c>
+      <c r="Y4">
+        <v>7000</v>
+      </c>
+      <c r="Z4">
+        <v>208</v>
+      </c>
+      <c r="AA4">
+        <v>172.357</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC4">
+        <v>29.745999999999999</v>
+      </c>
+      <c r="AD4">
+        <v>4.2494285714285698E-3</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>235.32575808511999</v>
+      </c>
+      <c r="AF4">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="AG4">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>3</v>
@@ -1025,8 +1167,35 @@
       <c r="X5" s="8">
         <v>0.5</v>
       </c>
+      <c r="Y5">
+        <v>7000</v>
+      </c>
+      <c r="Z5">
+        <v>208</v>
+      </c>
+      <c r="AA5">
+        <v>172.357</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC5">
+        <v>29.745999999999999</v>
+      </c>
+      <c r="AD5">
+        <v>4.2494285714285698E-3</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>235.32575808511999</v>
+      </c>
+      <c r="AF5">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="AG5">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>4</v>
@@ -1086,8 +1255,35 @@
       <c r="X6" s="8">
         <v>0.5</v>
       </c>
+      <c r="Y6">
+        <v>12000</v>
+      </c>
+      <c r="Z6">
+        <v>208</v>
+      </c>
+      <c r="AA6">
+        <v>172.357</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC6">
+        <v>50.996000000000002</v>
+      </c>
+      <c r="AD6">
+        <v>4.2496666666666603E-3</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>235.31257353517901</v>
+      </c>
+      <c r="AF6">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="AG6">
+        <v>49.999899999999997</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>5</v>
@@ -1120,8 +1316,35 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
+      <c r="Y7">
+        <v>7000</v>
+      </c>
+      <c r="Z7">
+        <v>174</v>
+      </c>
+      <c r="AA7">
+        <v>144.18299999999999</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC7">
+        <v>27.366</v>
+      </c>
+      <c r="AD7">
+        <v>3.9094285714285698E-3</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>255.79185851055999</v>
+      </c>
+      <c r="AF7">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="AG7">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>6</v>
@@ -1152,8 +1375,35 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
+      <c r="Y8">
+        <v>7000</v>
+      </c>
+      <c r="Z8">
+        <v>174</v>
+      </c>
+      <c r="AA8">
+        <v>144.18299999999999</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC8">
+        <v>27.366</v>
+      </c>
+      <c r="AD8">
+        <v>3.9094285714285698E-3</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>255.79185851055999</v>
+      </c>
+      <c r="AF8">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="AG8">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>7</v>
@@ -1186,8 +1436,35 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
+      <c r="Y9">
+        <v>8000</v>
+      </c>
+      <c r="Z9">
+        <v>151</v>
+      </c>
+      <c r="AA9">
+        <v>125.125</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC9">
+        <v>29.515999999999998</v>
+      </c>
+      <c r="AD9">
+        <v>3.6894999999999901E-3</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>271.03943623797198</v>
+      </c>
+      <c r="AF9">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="AG9">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>8</v>
@@ -1247,8 +1524,35 @@
       <c r="X10" s="8">
         <v>0.5</v>
       </c>
+      <c r="Y10">
+        <v>8000</v>
+      </c>
+      <c r="Z10">
+        <v>151</v>
+      </c>
+      <c r="AA10">
+        <v>125.125</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC10">
+        <v>29.515999999999998</v>
+      </c>
+      <c r="AD10">
+        <v>3.6894999999999901E-3</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>271.03943623797198</v>
+      </c>
+      <c r="AF10">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="AG10">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>9</v>
@@ -1308,8 +1612,35 @@
       <c r="X11" s="8">
         <v>0.5</v>
       </c>
+      <c r="Y11">
+        <v>8000</v>
+      </c>
+      <c r="Z11">
+        <v>151</v>
+      </c>
+      <c r="AA11">
+        <v>125.125</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC11">
+        <v>29.515999999999998</v>
+      </c>
+      <c r="AD11">
+        <v>3.6894999999999901E-3</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>271.03943623797198</v>
+      </c>
+      <c r="AF11">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="AG11">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>10</v>
@@ -1348,8 +1679,35 @@
       <c r="P12" s="6">
         <v>-20</v>
       </c>
+      <c r="Y12">
+        <v>20000</v>
+      </c>
+      <c r="Z12">
+        <v>26</v>
+      </c>
+      <c r="AA12">
+        <v>21.545000000000002</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC12">
+        <v>27.399000000000001</v>
+      </c>
+      <c r="AD12">
+        <v>1.36995E-3</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>729.95364794335501</v>
+      </c>
+      <c r="AF12">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="AG12">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>11</v>
@@ -1400,8 +1758,35 @@
       <c r="U13" s="8">
         <v>250</v>
       </c>
+      <c r="Y13">
+        <v>7000</v>
+      </c>
+      <c r="Z13">
+        <v>163</v>
+      </c>
+      <c r="AA13">
+        <v>135.06800000000001</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC13">
+        <v>26.666</v>
+      </c>
+      <c r="AD13">
+        <v>3.8094285714285699E-3</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>262.506562664066</v>
+      </c>
+      <c r="AF13">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="AG13">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>12</v>
@@ -1432,8 +1817,35 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
+      <c r="Y14">
+        <v>163</v>
+      </c>
+      <c r="Z14">
+        <v>163</v>
+      </c>
+      <c r="AA14">
+        <v>135.06800000000001</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC14">
+        <v>26.666</v>
+      </c>
+      <c r="AD14">
+        <v>0.16359509202453901</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>6.1126528163204004</v>
+      </c>
+      <c r="AF14">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="AG14">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>13</v>
@@ -1468,8 +1880,35 @@
       <c r="N15" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="Y15">
+        <v>8000</v>
+      </c>
+      <c r="Z15">
+        <v>180</v>
+      </c>
+      <c r="AA15">
+        <v>149.155</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC15">
+        <v>31.756</v>
+      </c>
+      <c r="AD15">
+        <v>3.9694999999999999E-3</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>251.920896838392</v>
+      </c>
+      <c r="AF15">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="AG15">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>14</v>
@@ -1531,8 +1970,35 @@
       <c r="X16" s="8">
         <v>0.5</v>
       </c>
+      <c r="Y16">
+        <v>8000</v>
+      </c>
+      <c r="Z16">
+        <v>180</v>
+      </c>
+      <c r="AA16">
+        <v>149.155</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC16">
+        <v>31.756</v>
+      </c>
+      <c r="AD16">
+        <v>3.9694999999999999E-3</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>251.920896838392</v>
+      </c>
+      <c r="AF16">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="AG16">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>15</v>
@@ -1583,8 +2049,35 @@
       <c r="U17" s="8">
         <v>250</v>
       </c>
+      <c r="Y17">
+        <v>8000</v>
+      </c>
+      <c r="Z17">
+        <v>157</v>
+      </c>
+      <c r="AA17">
+        <v>130.09700000000001</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC17">
+        <v>29.995999999999999</v>
+      </c>
+      <c r="AD17">
+        <v>3.7494999999999998E-3</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>266.70222696359502</v>
+      </c>
+      <c r="AF17">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="AG17">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>16</v>
@@ -1635,8 +2128,35 @@
       <c r="U18" s="8">
         <v>250</v>
       </c>
+      <c r="Y18">
+        <v>8000</v>
+      </c>
+      <c r="Z18">
+        <v>157</v>
+      </c>
+      <c r="AA18">
+        <v>130.09700000000001</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC18">
+        <v>29.995999999999999</v>
+      </c>
+      <c r="AD18">
+        <v>3.7494999999999998E-3</v>
+      </c>
+      <c r="AE18" s="9">
+        <v>266.70222696359502</v>
+      </c>
+      <c r="AF18">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="AG18">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>17</v>
@@ -1669,8 +2189,35 @@
       <c r="N19" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="Y19">
+        <v>9000</v>
+      </c>
+      <c r="Z19">
+        <v>96</v>
+      </c>
+      <c r="AA19">
+        <v>79.55</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC19">
+        <v>28.167000000000002</v>
+      </c>
+      <c r="AD19">
+        <v>3.1296666666666599E-3</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>319.52284588347999</v>
+      </c>
+      <c r="AF19">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="AG19">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>18</v>
@@ -1682,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F20" s="1">
         <v>20210129</v>
@@ -1728,8 +2275,35 @@
       <c r="U20" s="8">
         <v>250</v>
       </c>
+      <c r="Y20">
+        <v>9000</v>
+      </c>
+      <c r="Z20">
+        <v>96</v>
+      </c>
+      <c r="AA20">
+        <v>79.55</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC20">
+        <v>28.167000000000002</v>
+      </c>
+      <c r="AD20">
+        <v>3.1296666666666599E-3</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>319.52284588347999</v>
+      </c>
+      <c r="AF20">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="AG20">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>19</v>
@@ -1780,8 +2354,35 @@
       <c r="U21" s="8">
         <v>500</v>
       </c>
+      <c r="Y21">
+        <v>9000</v>
+      </c>
+      <c r="Z21">
+        <v>147</v>
+      </c>
+      <c r="AA21">
+        <v>121.81</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC21">
+        <v>32.845999999999997</v>
+      </c>
+      <c r="AD21">
+        <v>3.64955555555555E-3</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>274.00596724106401</v>
+      </c>
+      <c r="AF21">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="AG21">
+        <v>24.9999</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>20</v>
@@ -1834,8 +2435,36 @@
       <c r="U22" s="8">
         <v>500</v>
       </c>
+      <c r="Y22">
+        <v>9000</v>
+      </c>
+      <c r="Z22">
+        <v>75</v>
+      </c>
+      <c r="AA22">
+        <v>62.148000000000003</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AC22">
+        <v>26.367000000000001</v>
+      </c>
+      <c r="AD22">
+        <v>2.9296666666666599E-3</v>
+      </c>
+      <c r="AE22" s="9">
+        <v>341.33576060985303</v>
+      </c>
+      <c r="AF22">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="AG22">
+        <v>24.9999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/examples/dual-analysis/dual-database.xlsx
+++ b/examples/dual-analysis/dual-database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cudmore/Sites/SanPy/examples/dual-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565B196-FCFB-5F48-921D-A6B9938FEDCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A44FC-FB7B-0842-B2FE-BAE6949C6FEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27360" windowHeight="14680" xr2:uid="{8E007D05-730B-B14A-AC67-EF192B0933CD}"/>
+    <workbookView xWindow="1060" yWindow="740" windowWidth="27360" windowHeight="15760" xr2:uid="{8E007D05-730B-B14A-AC67-EF192B0933CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
   <si>
     <t>data path</t>
   </si>
@@ -321,9 +321,6 @@
     <t>9b</t>
   </si>
   <si>
-    <t>ca spikes good</t>
-  </si>
-  <si>
     <t>spike analysis</t>
   </si>
   <si>
@@ -361,13 +358,166 @@
   </si>
   <si>
     <t>meh_later</t>
+  </si>
+  <si>
+    <t>20210212__0001.tif</t>
+  </si>
+  <si>
+    <t>2021_02_12_0001.abf</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>2021_02_12_0000.abf</t>
+  </si>
+  <si>
+    <t>bad recording</t>
+  </si>
+  <si>
+    <t>20210212_.tif</t>
+  </si>
+  <si>
+    <t>20210202_.tif</t>
+  </si>
+  <si>
+    <t>2021_02_02_0000.abf</t>
+  </si>
+  <si>
+    <t>20210202__0002.tif</t>
+  </si>
+  <si>
+    <t>2021_02_02_0002.abf</t>
+  </si>
+  <si>
+    <t>11a</t>
+  </si>
+  <si>
+    <t>12a</t>
+  </si>
+  <si>
+    <t>12b</t>
+  </si>
+  <si>
+    <t>20210216_.tif</t>
+  </si>
+  <si>
+    <t>2021_02_16_0000.abf</t>
+  </si>
+  <si>
+    <t>APs towards end</t>
+  </si>
+  <si>
+    <t>13a</t>
+  </si>
+  <si>
+    <t>NOT SURE IF RECORDING FROM SAME CELL AS EPHYS</t>
+  </si>
+  <si>
+    <t>2021_02_16_0001.abf</t>
+  </si>
+  <si>
+    <t>20210216__0001.tif</t>
+  </si>
+  <si>
+    <t>14a</t>
+  </si>
+  <si>
+    <t>APs</t>
+  </si>
+  <si>
+    <t>NOT GOOD RECORDING, CELL DIED TOWARDS MIDDLE OF REC</t>
+  </si>
+  <si>
+    <t>15a</t>
+  </si>
+  <si>
+    <t>20210216__0002.tif</t>
+  </si>
+  <si>
+    <t>2021_02_16_0002.abf</t>
+  </si>
+  <si>
+    <t>20210216__0003.tif</t>
+  </si>
+  <si>
+    <t>2021_02_16_0003.abf</t>
+  </si>
+  <si>
+    <t>16a</t>
+  </si>
+  <si>
+    <t>15b</t>
+  </si>
+  <si>
+    <t>20210218_.tif</t>
+  </si>
+  <si>
+    <t>2021_02_18_0000.abf</t>
+  </si>
+  <si>
+    <t>17a</t>
+  </si>
+  <si>
+    <t>17b</t>
+  </si>
+  <si>
+    <t>17c</t>
+  </si>
+  <si>
+    <t>20210219_.tif</t>
+  </si>
+  <si>
+    <t>2021_02_19_0000.abf</t>
+  </si>
+  <si>
+    <t>2021_02_19_0001.abf</t>
+  </si>
+  <si>
+    <t>2021_02_19_0002.abf</t>
+  </si>
+  <si>
+    <t>20210219__0001.tif</t>
+  </si>
+  <si>
+    <t>20210219__0002.tif</t>
+  </si>
+  <si>
+    <t>20210219__0003.tif</t>
+  </si>
+  <si>
+    <t>2021_02_19_0003.abf</t>
+  </si>
+  <si>
+    <t>18a</t>
+  </si>
+  <si>
+    <t>20210219__0004.tif</t>
+  </si>
+  <si>
+    <t>2021_02_19_0004.abf</t>
+  </si>
+  <si>
+    <t>20210219__0005.tif</t>
+  </si>
+  <si>
+    <t>2021_02_19_0005.abf</t>
+  </si>
+  <si>
+    <t>19a</t>
+  </si>
+  <si>
+    <t>19b</t>
+  </si>
+  <si>
+    <t>very faint APs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,6 +557,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -440,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -454,6 +611,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,34 +928,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD968B9-DDA8-7A49-B49C-B3EBA0FD8938}">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane xSplit="10620" topLeftCell="Y1" activePane="topRight"/>
-      <selection activeCell="D13" sqref="A13:XFD13"/>
-      <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane xSplit="26780" ySplit="820" topLeftCell="X14" activePane="bottomLeft"/>
+      <selection activeCell="X1" sqref="X1:AF1048576"/>
+      <selection pane="topRight" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomRight" activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" customWidth="1"/>
-    <col min="9" max="10" width="8" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="13" max="13" width="4.83203125" customWidth="1"/>
-    <col min="15" max="15" width="15.5" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" style="8" customWidth="1"/>
-    <col min="18" max="22" width="10.83203125" style="8"/>
-    <col min="23" max="23" width="10.83203125" style="9"/>
-    <col min="28" max="28" width="10.83203125" style="9"/>
-    <col min="31" max="31" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="8" customWidth="1"/>
+    <col min="17" max="21" width="10.83203125" style="8"/>
+    <col min="22" max="22" width="10.83203125" style="9"/>
+    <col min="27" max="27" width="10.83203125" style="9"/>
+    <col min="28" max="28" width="15.6640625" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,70 +967,70 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s">
         <v>99</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" t="s">
-        <v>62</v>
       </c>
       <c r="Y1" t="s">
         <v>100</v>
@@ -874,29 +1038,26 @@
       <c r="Z1" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" t="s">
         <v>103</v>
       </c>
       <c r="AC1" t="s">
         <v>104</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" t="s">
         <v>106</v>
       </c>
       <c r="AF1" t="s">
         <v>107</v>
       </c>
-      <c r="AG1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -906,59 +1067,58 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="F2" s="1">
+      <c r="E2" s="1">
         <v>20201222</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="1">
+      <c r="K2" s="1">
         <v>8</v>
       </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="X2">
+        <v>10000</v>
+      </c>
       <c r="Y2">
-        <v>10000</v>
+        <v>138</v>
       </c>
       <c r="Z2">
-        <v>138</v>
-      </c>
-      <c r="AA2">
         <v>57.176000000000002</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AA2" s="9">
         <v>0.41399999999999998</v>
       </c>
+      <c r="AB2">
+        <v>35.496000000000002</v>
+      </c>
       <c r="AC2">
-        <v>35.496000000000002</v>
-      </c>
-      <c r="AD2">
         <v>3.5496E-3</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AD2" s="9">
         <v>281.72188415596099</v>
       </c>
+      <c r="AE2">
+        <v>0.51529999999999998</v>
+      </c>
       <c r="AF2">
-        <v>0.51529999999999998</v>
-      </c>
-      <c r="AG2">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>1</v>
@@ -967,57 +1127,56 @@
         <v>0</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
         <v>20201222</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="X3">
+        <v>10000</v>
+      </c>
       <c r="Y3">
-        <v>10000</v>
+        <v>146</v>
       </c>
       <c r="Z3">
-        <v>146</v>
-      </c>
-      <c r="AA3">
         <v>60.491</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AA3" s="9">
         <v>0.41399999999999998</v>
       </c>
+      <c r="AB3">
+        <v>36.295999999999999</v>
+      </c>
       <c r="AC3">
-        <v>36.295999999999999</v>
-      </c>
-      <c r="AD3">
         <v>3.6295999999999902E-3</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AD3" s="9">
         <v>275.51245316288299</v>
       </c>
+      <c r="AE3">
+        <v>0.51539999999999997</v>
+      </c>
       <c r="AF3">
-        <v>0.51539999999999997</v>
-      </c>
-      <c r="AG3">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2</v>
@@ -1025,89 +1184,88 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
         <v>20210115</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="1">
+      <c r="K4" s="1">
         <v>8</v>
       </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4">
+      <c r="N4">
         <v>10</v>
       </c>
-      <c r="P4" s="6">
+      <c r="O4" s="6">
         <v>0</v>
       </c>
+      <c r="P4" s="8">
+        <v>5</v>
+      </c>
       <c r="Q4" s="8">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="R4" s="8">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="S4" s="8">
-        <v>300</v>
+        <v>-20</v>
       </c>
       <c r="T4" s="8">
-        <v>-20</v>
-      </c>
-      <c r="U4" s="8">
         <v>250</v>
       </c>
-      <c r="W4" s="9">
+      <c r="V4" s="9">
         <v>0.01</v>
       </c>
-      <c r="X4" s="8">
+      <c r="W4" s="8">
         <v>0.5</v>
       </c>
+      <c r="X4">
+        <v>7000</v>
+      </c>
       <c r="Y4">
-        <v>7000</v>
+        <v>208</v>
       </c>
       <c r="Z4">
-        <v>208</v>
-      </c>
-      <c r="AA4">
         <v>172.357</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AA4" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB4">
+        <v>29.745999999999999</v>
+      </c>
       <c r="AC4">
-        <v>29.745999999999999</v>
-      </c>
-      <c r="AD4">
         <v>4.2494285714285698E-3</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AD4" s="9">
         <v>235.32575808511999</v>
       </c>
+      <c r="AE4">
+        <v>0.51600000000000001</v>
+      </c>
       <c r="AF4">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="AG4">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>3</v>
@@ -1115,87 +1273,86 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
         <v>20210115</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="2">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5">
+      <c r="N5">
         <v>10</v>
       </c>
-      <c r="P5" s="6">
+      <c r="O5" s="6">
         <v>0</v>
       </c>
+      <c r="P5" s="8">
+        <v>5</v>
+      </c>
       <c r="Q5" s="8">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="R5" s="8">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="S5" s="8">
-        <v>300</v>
+        <v>-20</v>
       </c>
       <c r="T5" s="8">
-        <v>-20</v>
-      </c>
-      <c r="U5" s="8">
         <v>250</v>
       </c>
-      <c r="W5" s="9">
+      <c r="V5" s="9">
         <v>0.01</v>
       </c>
-      <c r="X5" s="8">
+      <c r="W5" s="8">
         <v>0.5</v>
       </c>
+      <c r="X5">
+        <v>7000</v>
+      </c>
       <c r="Y5">
-        <v>7000</v>
+        <v>208</v>
       </c>
       <c r="Z5">
-        <v>208</v>
-      </c>
-      <c r="AA5">
         <v>172.357</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AA5" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB5">
+        <v>29.745999999999999</v>
+      </c>
       <c r="AC5">
-        <v>29.745999999999999</v>
-      </c>
-      <c r="AD5">
         <v>4.2494285714285698E-3</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AD5" s="9">
         <v>235.32575808511999</v>
       </c>
+      <c r="AE5">
+        <v>0.51600000000000001</v>
+      </c>
       <c r="AF5">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="AG5">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>4</v>
@@ -1203,87 +1360,86 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E6" s="1">
         <v>20210115</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="2">
+      <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6">
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="P6" s="6">
+      <c r="O6" s="6">
         <v>0</v>
       </c>
+      <c r="P6" s="8">
+        <v>5</v>
+      </c>
       <c r="Q6" s="8">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="R6" s="8">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="S6" s="8">
-        <v>300</v>
+        <v>-20</v>
       </c>
       <c r="T6" s="8">
-        <v>-20</v>
-      </c>
-      <c r="U6" s="8">
         <v>250</v>
       </c>
-      <c r="W6" s="9">
+      <c r="V6" s="9">
         <v>0.01</v>
       </c>
-      <c r="X6" s="8">
+      <c r="W6" s="8">
         <v>0.5</v>
       </c>
+      <c r="X6">
+        <v>12000</v>
+      </c>
       <c r="Y6">
-        <v>12000</v>
+        <v>208</v>
       </c>
       <c r="Z6">
-        <v>208</v>
-      </c>
-      <c r="AA6">
         <v>172.357</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AA6" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB6">
+        <v>50.996000000000002</v>
+      </c>
       <c r="AC6">
-        <v>50.996000000000002</v>
-      </c>
-      <c r="AD6">
         <v>4.2496666666666603E-3</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AD6" s="9">
         <v>235.31257353517901</v>
       </c>
+      <c r="AE6">
+        <v>0.90659999999999996</v>
+      </c>
       <c r="AF6">
-        <v>0.90659999999999996</v>
-      </c>
-      <c r="AG6">
         <v>49.999899999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>5</v>
@@ -1292,59 +1448,58 @@
         <v>0</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="1">
+      <c r="E7" s="1">
         <v>20210120</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="2">
+      <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="1">
+      <c r="K7" s="1">
         <v>9</v>
       </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="X7">
+        <v>7000</v>
+      </c>
       <c r="Y7">
-        <v>7000</v>
+        <v>174</v>
       </c>
       <c r="Z7">
-        <v>174</v>
-      </c>
-      <c r="AA7">
         <v>144.18299999999999</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AA7" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB7">
+        <v>27.366</v>
+      </c>
       <c r="AC7">
-        <v>27.366</v>
-      </c>
-      <c r="AD7">
         <v>3.9094285714285698E-3</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AD7" s="9">
         <v>255.79185851055999</v>
       </c>
+      <c r="AE7">
+        <v>0.51570000000000005</v>
+      </c>
       <c r="AF7">
-        <v>0.51570000000000005</v>
-      </c>
-      <c r="AG7">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>6</v>
@@ -1353,57 +1508,56 @@
         <v>0</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
         <v>20210120</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="2">
+      <c r="H8" s="2">
         <v>3</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="X8">
+        <v>7000</v>
+      </c>
       <c r="Y8">
-        <v>7000</v>
+        <v>174</v>
       </c>
       <c r="Z8">
-        <v>174</v>
-      </c>
-      <c r="AA8">
         <v>144.18299999999999</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AA8" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB8">
+        <v>27.366</v>
+      </c>
       <c r="AC8">
-        <v>27.366</v>
-      </c>
-      <c r="AD8">
         <v>3.9094285714285698E-3</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AD8" s="9">
         <v>255.79185851055999</v>
       </c>
+      <c r="AE8">
+        <v>0.51570000000000005</v>
+      </c>
       <c r="AF8">
-        <v>0.51570000000000005</v>
-      </c>
-      <c r="AG8">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>7</v>
@@ -1412,59 +1566,58 @@
         <v>0</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="1">
+      <c r="E9" s="1">
         <v>20210122</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="2">
+      <c r="H9" s="2">
         <v>4</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="1">
+      <c r="K9" s="1">
         <v>9</v>
       </c>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="X9">
+        <v>8000</v>
+      </c>
       <c r="Y9">
-        <v>8000</v>
+        <v>151</v>
       </c>
       <c r="Z9">
-        <v>151</v>
-      </c>
-      <c r="AA9">
         <v>125.125</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AA9" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB9">
+        <v>29.515999999999998</v>
+      </c>
       <c r="AC9">
-        <v>29.515999999999998</v>
-      </c>
-      <c r="AD9">
         <v>3.6894999999999901E-3</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AD9" s="9">
         <v>271.03943623797198</v>
       </c>
+      <c r="AE9">
+        <v>0.51549999999999996</v>
+      </c>
       <c r="AF9">
-        <v>0.51549999999999996</v>
-      </c>
-      <c r="AG9">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>8</v>
@@ -1472,87 +1625,86 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="1">
+      <c r="E10" s="1">
         <v>20210122</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="2">
+      <c r="H10" s="2">
         <v>4</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10">
+      <c r="N10">
         <v>10</v>
       </c>
-      <c r="P10" s="6">
+      <c r="O10" s="6">
         <v>0</v>
       </c>
+      <c r="P10" s="8">
+        <v>5</v>
+      </c>
       <c r="Q10" s="8">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="R10" s="8">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="S10" s="8">
-        <v>300</v>
+        <v>-20</v>
       </c>
       <c r="T10" s="8">
-        <v>-20</v>
-      </c>
-      <c r="U10" s="8">
         <v>250</v>
       </c>
-      <c r="W10" s="9">
+      <c r="V10" s="9">
         <v>0.01</v>
       </c>
-      <c r="X10" s="8">
+      <c r="W10" s="8">
         <v>0.5</v>
       </c>
+      <c r="X10">
+        <v>8000</v>
+      </c>
       <c r="Y10">
-        <v>8000</v>
+        <v>151</v>
       </c>
       <c r="Z10">
-        <v>151</v>
-      </c>
-      <c r="AA10">
         <v>125.125</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AA10" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB10">
+        <v>29.515999999999998</v>
+      </c>
       <c r="AC10">
-        <v>29.515999999999998</v>
-      </c>
-      <c r="AD10">
         <v>3.6894999999999901E-3</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AD10" s="9">
         <v>271.03943623797198</v>
       </c>
+      <c r="AE10">
+        <v>0.51549999999999996</v>
+      </c>
       <c r="AF10">
-        <v>0.51549999999999996</v>
-      </c>
-      <c r="AG10">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>9</v>
@@ -1560,87 +1712,86 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E11" s="1">
         <v>20210122</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="2">
+      <c r="H11" s="2">
         <v>4</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11">
+      <c r="N11">
         <v>10</v>
       </c>
-      <c r="P11" s="6">
+      <c r="O11" s="6">
         <v>0</v>
       </c>
+      <c r="P11" s="8">
+        <v>5</v>
+      </c>
       <c r="Q11" s="8">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="R11" s="8">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="S11" s="8">
-        <v>300</v>
+        <v>-20</v>
       </c>
       <c r="T11" s="8">
-        <v>-20</v>
-      </c>
-      <c r="U11" s="8">
         <v>250</v>
       </c>
-      <c r="W11" s="9">
+      <c r="V11" s="9">
         <v>0.01</v>
       </c>
-      <c r="X11" s="8">
+      <c r="W11" s="8">
         <v>0.5</v>
       </c>
+      <c r="X11">
+        <v>8000</v>
+      </c>
       <c r="Y11">
-        <v>8000</v>
+        <v>151</v>
       </c>
       <c r="Z11">
-        <v>151</v>
-      </c>
-      <c r="AA11">
         <v>125.125</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AA11" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB11">
+        <v>29.515999999999998</v>
+      </c>
       <c r="AC11">
-        <v>29.515999999999998</v>
-      </c>
-      <c r="AD11">
         <v>3.6894999999999901E-3</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AD11" s="9">
         <v>271.03943623797198</v>
       </c>
+      <c r="AE11">
+        <v>0.51549999999999996</v>
+      </c>
       <c r="AF11">
-        <v>0.51549999999999996</v>
-      </c>
-      <c r="AG11">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>10</v>
@@ -1649,65 +1800,64 @@
         <v>-1</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
+      <c r="E12" s="1">
         <v>20210122</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="2">
+      <c r="H12" s="2">
         <v>4</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O12">
+      <c r="N12">
         <v>10</v>
       </c>
-      <c r="P12" s="6">
+      <c r="O12" s="6">
         <v>-20</v>
       </c>
+      <c r="X12">
+        <v>20000</v>
+      </c>
       <c r="Y12">
-        <v>20000</v>
+        <v>26</v>
       </c>
       <c r="Z12">
-        <v>26</v>
-      </c>
-      <c r="AA12">
         <v>21.545000000000002</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AA12" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB12">
+        <v>27.399000000000001</v>
+      </c>
       <c r="AC12">
-        <v>27.399000000000001</v>
-      </c>
-      <c r="AD12">
         <v>1.36995E-3</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AD12" s="9">
         <v>729.95364794335501</v>
       </c>
+      <c r="AE12">
+        <v>0.51280000000000003</v>
+      </c>
       <c r="AF12">
-        <v>0.51280000000000003</v>
-      </c>
-      <c r="AG12">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>11</v>
@@ -1715,78 +1865,77 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1">
+      <c r="E13" s="1">
         <v>20210122</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="2">
+      <c r="H13" s="2">
         <v>5</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="P13" s="6">
+      <c r="O13" s="6">
         <v>-40</v>
       </c>
+      <c r="P13" s="8">
+        <v>5</v>
+      </c>
       <c r="Q13" s="8">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="R13" s="8">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="S13" s="8">
-        <v>300</v>
+        <v>-15</v>
       </c>
       <c r="T13" s="8">
-        <v>-15</v>
-      </c>
-      <c r="U13" s="8">
         <v>250</v>
       </c>
+      <c r="X13">
+        <v>7000</v>
+      </c>
       <c r="Y13">
-        <v>7000</v>
+        <v>163</v>
       </c>
       <c r="Z13">
-        <v>163</v>
-      </c>
-      <c r="AA13">
         <v>135.06800000000001</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AA13" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB13">
+        <v>26.666</v>
+      </c>
       <c r="AC13">
-        <v>26.666</v>
-      </c>
-      <c r="AD13">
         <v>3.8094285714285699E-3</v>
       </c>
-      <c r="AE13" s="9">
+      <c r="AD13" s="9">
         <v>262.506562664066</v>
       </c>
+      <c r="AE13">
+        <v>0.51559999999999995</v>
+      </c>
       <c r="AF13">
-        <v>0.51559999999999995</v>
-      </c>
-      <c r="AG13">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>12</v>
@@ -1795,57 +1944,56 @@
         <v>0</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="1">
+      <c r="E14" s="1">
         <v>20210122</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="2">
+      <c r="H14" s="2">
         <v>5</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="X14">
+        <v>163</v>
+      </c>
       <c r="Y14">
         <v>163</v>
       </c>
       <c r="Z14">
-        <v>163</v>
-      </c>
-      <c r="AA14">
         <v>135.06800000000001</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AA14" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB14">
+        <v>26.666</v>
+      </c>
       <c r="AC14">
-        <v>26.666</v>
-      </c>
-      <c r="AD14">
         <v>0.16359509202453901</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AD14" s="9">
         <v>6.1126528163204004</v>
       </c>
+      <c r="AE14">
+        <v>0.51559999999999995</v>
+      </c>
       <c r="AF14">
-        <v>0.51559999999999995</v>
-      </c>
-      <c r="AG14">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>13</v>
@@ -1854,61 +2002,60 @@
         <v>0</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11">
+      <c r="E15" s="11">
         <v>20210129</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="2">
+      <c r="H15" s="2">
         <v>6</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="1">
+      <c r="K15" s="1">
         <v>8</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="X15">
+        <v>8000</v>
+      </c>
       <c r="Y15">
-        <v>8000</v>
+        <v>180</v>
       </c>
       <c r="Z15">
-        <v>180</v>
-      </c>
-      <c r="AA15">
         <v>149.155</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AA15" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB15">
+        <v>31.756</v>
+      </c>
       <c r="AC15">
-        <v>31.756</v>
-      </c>
-      <c r="AD15">
         <v>3.9694999999999999E-3</v>
       </c>
-      <c r="AE15" s="9">
+      <c r="AD15" s="9">
         <v>251.920896838392</v>
       </c>
+      <c r="AE15">
+        <v>0.51570000000000005</v>
+      </c>
       <c r="AF15">
-        <v>0.51570000000000005</v>
-      </c>
-      <c r="AG15">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>14</v>
@@ -1916,89 +2063,88 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="1">
+      <c r="E16" s="1">
         <v>20210129</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="2">
+      <c r="H16" s="2">
         <v>6</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O16">
+      <c r="N16">
         <v>15</v>
       </c>
-      <c r="P16" s="6">
+      <c r="O16" s="6">
         <v>20</v>
       </c>
+      <c r="P16" s="8">
+        <v>5</v>
+      </c>
       <c r="Q16" s="8">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="R16" s="8">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="S16" s="8">
-        <v>300</v>
+        <v>-15</v>
       </c>
       <c r="T16" s="8">
-        <v>-15</v>
-      </c>
-      <c r="U16" s="8">
         <v>250</v>
       </c>
-      <c r="W16" s="9">
+      <c r="V16" s="9">
         <v>0.01</v>
       </c>
-      <c r="X16" s="8">
+      <c r="W16" s="8">
         <v>0.5</v>
       </c>
+      <c r="X16">
+        <v>8000</v>
+      </c>
       <c r="Y16">
-        <v>8000</v>
+        <v>180</v>
       </c>
       <c r="Z16">
-        <v>180</v>
-      </c>
-      <c r="AA16">
         <v>149.155</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AA16" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB16">
+        <v>31.756</v>
+      </c>
       <c r="AC16">
-        <v>31.756</v>
-      </c>
-      <c r="AD16">
         <v>3.9694999999999999E-3</v>
       </c>
-      <c r="AE16" s="9">
+      <c r="AD16" s="9">
         <v>251.920896838392</v>
       </c>
+      <c r="AE16">
+        <v>0.51570000000000005</v>
+      </c>
       <c r="AF16">
-        <v>0.51570000000000005</v>
-      </c>
-      <c r="AG16">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>15</v>
@@ -2006,78 +2152,77 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="1">
+      <c r="E17" s="1">
         <v>20210129</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="2">
+      <c r="H17" s="2">
         <v>7</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="6">
+      <c r="O17" s="6">
         <v>-50</v>
       </c>
+      <c r="P17" s="8">
+        <v>5</v>
+      </c>
       <c r="Q17" s="8">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="R17" s="8">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="S17" s="8">
-        <v>300</v>
+        <v>-15</v>
       </c>
       <c r="T17" s="8">
-        <v>-15</v>
-      </c>
-      <c r="U17" s="8">
         <v>250</v>
       </c>
+      <c r="X17">
+        <v>8000</v>
+      </c>
       <c r="Y17">
-        <v>8000</v>
+        <v>157</v>
       </c>
       <c r="Z17">
-        <v>157</v>
-      </c>
-      <c r="AA17">
         <v>130.09700000000001</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AA17" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB17">
+        <v>29.995999999999999</v>
+      </c>
       <c r="AC17">
-        <v>29.995999999999999</v>
-      </c>
-      <c r="AD17">
         <v>3.7494999999999998E-3</v>
       </c>
-      <c r="AE17" s="9">
+      <c r="AD17" s="9">
         <v>266.70222696359502</v>
       </c>
+      <c r="AE17">
+        <v>0.51549999999999996</v>
+      </c>
       <c r="AF17">
-        <v>0.51549999999999996</v>
-      </c>
-      <c r="AG17">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>16</v>
@@ -2085,78 +2230,77 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="1">
+      <c r="E18" s="1">
         <v>20210129</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="2">
+      <c r="H18" s="2">
         <v>7</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="P18" s="6">
+      <c r="O18" s="6">
         <v>-50</v>
       </c>
+      <c r="P18" s="8">
+        <v>5</v>
+      </c>
       <c r="Q18" s="8">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="R18" s="8">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="S18" s="8">
-        <v>300</v>
+        <v>-15</v>
       </c>
       <c r="T18" s="8">
-        <v>-15</v>
-      </c>
-      <c r="U18" s="8">
         <v>250</v>
       </c>
+      <c r="X18">
+        <v>8000</v>
+      </c>
       <c r="Y18">
-        <v>8000</v>
+        <v>157</v>
       </c>
       <c r="Z18">
-        <v>157</v>
-      </c>
-      <c r="AA18">
         <v>130.09700000000001</v>
       </c>
-      <c r="AB18" s="9">
+      <c r="AA18" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB18">
+        <v>29.995999999999999</v>
+      </c>
       <c r="AC18">
-        <v>29.995999999999999</v>
-      </c>
-      <c r="AD18">
         <v>3.7494999999999998E-3</v>
       </c>
-      <c r="AE18" s="9">
+      <c r="AD18" s="9">
         <v>266.70222696359502</v>
       </c>
+      <c r="AE18">
+        <v>0.51549999999999996</v>
+      </c>
       <c r="AF18">
-        <v>0.51549999999999996</v>
-      </c>
-      <c r="AG18">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>17</v>
@@ -2165,59 +2309,58 @@
         <v>0</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="1">
+      <c r="E19" s="1">
         <v>20210129</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="2">
+      <c r="H19" s="2">
         <v>8</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="X19">
+        <v>9000</v>
+      </c>
       <c r="Y19">
-        <v>9000</v>
+        <v>96</v>
       </c>
       <c r="Z19">
-        <v>96</v>
-      </c>
-      <c r="AA19">
         <v>79.55</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AA19" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB19">
+        <v>28.167000000000002</v>
+      </c>
       <c r="AC19">
-        <v>28.167000000000002</v>
-      </c>
-      <c r="AD19">
         <v>3.1296666666666599E-3</v>
       </c>
-      <c r="AE19" s="9">
+      <c r="AD19" s="9">
         <v>319.52284588347999</v>
       </c>
+      <c r="AE19">
+        <v>0.51490000000000002</v>
+      </c>
       <c r="AF19">
-        <v>0.51490000000000002</v>
-      </c>
-      <c r="AG19">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>18</v>
@@ -2225,85 +2368,82 @@
       <c r="C20" s="12">
         <v>0</v>
       </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="D20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="1">
         <v>20210129</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="2">
+      <c r="H20" s="2">
         <v>8</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O20">
+      <c r="N20">
         <v>7</v>
       </c>
-      <c r="P20" s="6">
+      <c r="O20" s="6">
         <v>-80</v>
       </c>
+      <c r="P20" s="8">
+        <v>5</v>
+      </c>
       <c r="Q20" s="8">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="R20" s="8">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S20" s="8">
-        <v>200</v>
+        <v>-75</v>
       </c>
       <c r="T20" s="8">
-        <v>-75</v>
-      </c>
-      <c r="U20" s="8">
         <v>250</v>
       </c>
+      <c r="X20">
+        <v>9000</v>
+      </c>
       <c r="Y20">
-        <v>9000</v>
+        <v>96</v>
       </c>
       <c r="Z20">
-        <v>96</v>
-      </c>
-      <c r="AA20">
         <v>79.55</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AA20" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB20">
+        <v>28.167000000000002</v>
+      </c>
       <c r="AC20">
-        <v>28.167000000000002</v>
-      </c>
-      <c r="AD20">
         <v>3.1296666666666599E-3</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AD20" s="9">
         <v>319.52284588347999</v>
       </c>
+      <c r="AE20">
+        <v>0.51490000000000002</v>
+      </c>
       <c r="AF20">
-        <v>0.51490000000000002</v>
-      </c>
-      <c r="AG20">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>19</v>
@@ -2311,78 +2451,77 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="1">
+      <c r="E21" s="1">
         <v>20210129</v>
       </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="2">
+      <c r="H21" s="2">
         <v>9</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="P21" s="6">
+      <c r="O21" s="6">
         <v>-50</v>
       </c>
+      <c r="P21" s="8">
+        <v>5</v>
+      </c>
       <c r="Q21" s="8">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="R21" s="8">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="S21" s="8">
+        <v>-10</v>
+      </c>
+      <c r="T21" s="8">
         <v>500</v>
       </c>
-      <c r="T21" s="8">
-        <v>-10</v>
-      </c>
-      <c r="U21" s="8">
-        <v>500</v>
+      <c r="X21">
+        <v>9000</v>
       </c>
       <c r="Y21">
-        <v>9000</v>
+        <v>147</v>
       </c>
       <c r="Z21">
-        <v>147</v>
-      </c>
-      <c r="AA21">
         <v>121.81</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AA21" s="9">
         <v>0.82899999999999996</v>
       </c>
+      <c r="AB21">
+        <v>32.845999999999997</v>
+      </c>
       <c r="AC21">
-        <v>32.845999999999997</v>
-      </c>
-      <c r="AD21">
         <v>3.64955555555555E-3</v>
       </c>
-      <c r="AE21" s="9">
+      <c r="AD21" s="9">
         <v>274.00596724106401</v>
       </c>
+      <c r="AE21">
+        <v>0.51539999999999997</v>
+      </c>
       <c r="AF21">
-        <v>0.51539999999999997</v>
-      </c>
-      <c r="AG21">
         <v>24.9999</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>20</v>
@@ -2390,76 +2529,1010 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="1">
+      <c r="E22" s="1">
         <v>20210129</v>
       </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="2">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="6">
+        <v>-50</v>
+      </c>
+      <c r="P22" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>700</v>
+      </c>
+      <c r="R22" s="8">
+        <v>500</v>
+      </c>
+      <c r="S22" s="8">
+        <v>-10</v>
+      </c>
+      <c r="T22" s="8">
+        <v>500</v>
+      </c>
+      <c r="X22">
+        <v>9000</v>
+      </c>
+      <c r="Y22">
+        <v>75</v>
+      </c>
+      <c r="Z22">
+        <v>62.148000000000003</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB22">
+        <v>26.367000000000001</v>
+      </c>
+      <c r="AC22">
+        <v>2.9296666666666599E-3</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>341.33576060985303</v>
+      </c>
+      <c r="AE22">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="AF22">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="13">
+        <v>20210202</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="X23">
+        <v>8000</v>
+      </c>
+      <c r="Y23">
+        <v>178</v>
+      </c>
+      <c r="Z23">
+        <v>147.49799999999999</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB23">
+        <v>31.596</v>
+      </c>
+      <c r="AC23">
+        <v>3.9494999999999999E-3</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>253.196607165464</v>
+      </c>
+      <c r="AE23">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="AF23">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1">
+        <v>20210202</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="2">
+        <v>11</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24">
+        <v>20</v>
+      </c>
+      <c r="O24" s="6">
+        <v>-20</v>
+      </c>
+      <c r="P24" s="8">
+        <v>5</v>
+      </c>
+      <c r="T24" s="8">
+        <v>300</v>
+      </c>
+      <c r="X24">
+        <v>8000</v>
+      </c>
+      <c r="Y24">
+        <v>154</v>
+      </c>
+      <c r="Z24">
+        <v>127.611</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB24">
+        <v>29.675999999999998</v>
+      </c>
+      <c r="AC24">
+        <v>3.7094999999999901E-3</v>
+      </c>
+      <c r="AD24" s="9">
+        <v>269.57811025744701</v>
+      </c>
+      <c r="AE24">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="AF24">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>20210212</v>
+      </c>
+      <c r="F25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="2">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X25">
+        <v>10000</v>
+      </c>
+      <c r="Y25">
+        <v>75</v>
+      </c>
+      <c r="Z25">
+        <v>62.148000000000003</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB25">
+        <v>29.297000000000001</v>
+      </c>
+      <c r="AC25">
+        <v>2.9296999999999999E-3</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>341.33187698399098</v>
+      </c>
+      <c r="AE25">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="AF25">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>20210212</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="2">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="X26">
+        <v>8000</v>
+      </c>
+      <c r="Y26">
+        <v>174</v>
+      </c>
+      <c r="Z26">
+        <v>144.18299999999999</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB26">
+        <v>31.276</v>
+      </c>
+      <c r="AC26">
+        <v>3.9094999999999998E-3</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>255.78718506202799</v>
+      </c>
+      <c r="AE26">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="AF26">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>20210216</v>
+      </c>
+      <c r="F27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="2">
+        <v>13</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27">
+        <v>8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>124</v>
+      </c>
+      <c r="X27">
+        <v>9000</v>
+      </c>
+      <c r="Y27">
+        <v>120</v>
+      </c>
+      <c r="Z27">
+        <v>99.436999999999998</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB27">
+        <v>30.327000000000002</v>
+      </c>
+      <c r="AC27">
+        <v>3.3696666666666601E-3</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>296.765258680383</v>
+      </c>
+      <c r="AE27">
+        <v>0.5151</v>
+      </c>
+      <c r="AF27">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="2">
-        <v>9</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="14">
+        <v>20210216</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="2">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" t="s">
+        <v>126</v>
+      </c>
+      <c r="O28" s="6">
+        <v>-40</v>
+      </c>
+      <c r="P28" s="8">
+        <v>5</v>
+      </c>
+      <c r="T28" s="8">
+        <v>300</v>
+      </c>
+      <c r="X28">
+        <v>9000</v>
+      </c>
+      <c r="Y28">
+        <v>100</v>
+      </c>
+      <c r="Z28">
+        <v>82.864000000000004</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB28">
+        <v>28.527000000000001</v>
+      </c>
+      <c r="AC28">
+        <v>3.16966666666666E-3</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>315.49058786412797</v>
+      </c>
+      <c r="AE28">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="AF28">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="14">
+        <v>20210216</v>
+      </c>
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="2">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29" s="6">
+        <v>-20</v>
+      </c>
+      <c r="P29" s="8">
+        <v>5</v>
+      </c>
+      <c r="T29" s="8">
+        <v>300</v>
+      </c>
+      <c r="X29">
+        <v>10000</v>
+      </c>
+      <c r="Y29">
+        <v>72</v>
+      </c>
+      <c r="Z29">
+        <v>59.661999999999999</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB29">
+        <v>28.896999999999998</v>
+      </c>
+      <c r="AC29">
+        <v>2.8896999999999998E-3</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>346.05668408485298</v>
+      </c>
+      <c r="AE29">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="AF29">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <v>20210216</v>
+      </c>
+      <c r="F30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="2">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" t="s">
+        <v>131</v>
+      </c>
+      <c r="X30">
+        <v>10000</v>
+      </c>
+      <c r="Y30">
+        <v>72</v>
+      </c>
+      <c r="Z30">
+        <v>59.661999999999999</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB30">
+        <v>28.896999999999998</v>
+      </c>
+      <c r="AC30">
+        <v>2.8896999999999998E-3</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>346.05668408485298</v>
+      </c>
+      <c r="AE30">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="AF30">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="14">
+        <v>20210218</v>
+      </c>
+      <c r="F31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="2">
+        <v>16</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31">
+        <v>8</v>
+      </c>
+      <c r="O31" s="6">
+        <v>-40</v>
+      </c>
+      <c r="P31" s="8">
+        <v>5</v>
+      </c>
+      <c r="T31" s="8">
+        <v>300</v>
+      </c>
+      <c r="X31">
+        <v>7000</v>
+      </c>
+      <c r="Y31">
+        <v>183</v>
+      </c>
+      <c r="Z31">
+        <v>151.64099999999999</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB31">
+        <v>28.065999999999999</v>
+      </c>
+      <c r="AC31">
+        <v>4.00942857142857E-3</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>249.41210004988201</v>
+      </c>
+      <c r="AE31">
+        <v>0.51580000000000004</v>
+      </c>
+      <c r="AF31">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>20210219</v>
+      </c>
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="2">
+        <v>17</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P22" s="6">
-        <v>-50</v>
-      </c>
-      <c r="Q22" s="8">
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="X32">
+        <v>8000</v>
+      </c>
+      <c r="Y32">
+        <v>163</v>
+      </c>
+      <c r="Z32">
+        <v>135.06800000000001</v>
+      </c>
+      <c r="AA32" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB32">
+        <v>30.475999999999999</v>
+      </c>
+      <c r="AC32">
+        <v>3.8095E-3</v>
+      </c>
+      <c r="AD32" s="9">
+        <v>262.50164063525398</v>
+      </c>
+      <c r="AE32">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="AF32">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>20210219</v>
+      </c>
+      <c r="F33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="2">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" t="s">
+        <v>44</v>
+      </c>
+      <c r="X33">
+        <v>8000</v>
+      </c>
+      <c r="Y33">
+        <v>163</v>
+      </c>
+      <c r="Z33">
+        <v>135.06800000000001</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB33">
+        <v>30.475999999999999</v>
+      </c>
+      <c r="AC33">
+        <v>3.8095E-3</v>
+      </c>
+      <c r="AD33" s="9">
+        <v>262.50164063525398</v>
+      </c>
+      <c r="AE33">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="AF33">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>20210219</v>
+      </c>
+      <c r="F34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="2">
+        <v>17</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" t="s">
+        <v>44</v>
+      </c>
+      <c r="X34">
+        <v>8000</v>
+      </c>
+      <c r="Y34">
+        <v>163</v>
+      </c>
+      <c r="Z34">
+        <v>135.06800000000001</v>
+      </c>
+      <c r="AA34" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB34">
+        <v>30.475999999999999</v>
+      </c>
+      <c r="AC34">
+        <v>3.8095E-3</v>
+      </c>
+      <c r="AD34" s="9">
+        <v>262.50164063525398</v>
+      </c>
+      <c r="AE34">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="AF34">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35">
+        <v>20210219</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="2">
+        <v>18</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" t="s">
+        <v>159</v>
+      </c>
+      <c r="N35">
+        <v>11</v>
+      </c>
+      <c r="O35" s="6">
+        <v>-20</v>
+      </c>
+      <c r="P35" s="8">
         <v>5</v>
       </c>
-      <c r="R22" s="8">
-        <v>700</v>
-      </c>
-      <c r="S22" s="8">
-        <v>500</v>
-      </c>
-      <c r="T22" s="8">
-        <v>-10</v>
-      </c>
-      <c r="U22" s="8">
-        <v>500</v>
-      </c>
-      <c r="Y22">
+      <c r="T35" s="8">
+        <v>200</v>
+      </c>
+      <c r="X35">
         <v>9000</v>
       </c>
-      <c r="Z22">
-        <v>75</v>
-      </c>
-      <c r="AA22">
-        <v>62.148000000000003</v>
-      </c>
-      <c r="AB22" s="9">
+      <c r="Y35">
+        <v>96</v>
+      </c>
+      <c r="Z35">
+        <v>79.55</v>
+      </c>
+      <c r="AA35" s="9">
         <v>0.82899999999999996</v>
       </c>
-      <c r="AC22">
-        <v>26.367000000000001</v>
-      </c>
-      <c r="AD22">
-        <v>2.9296666666666599E-3</v>
-      </c>
-      <c r="AE22" s="9">
-        <v>341.33576060985303</v>
-      </c>
-      <c r="AF22">
-        <v>0.51470000000000005</v>
-      </c>
-      <c r="AG22">
+      <c r="AB35">
+        <v>28.167000000000002</v>
+      </c>
+      <c r="AC35">
+        <v>3.1296666666666599E-3</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>319.52284588347999</v>
+      </c>
+      <c r="AE35">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="AF35">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36">
+        <v>20210219</v>
+      </c>
+      <c r="F36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="2">
+        <v>19</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36">
+        <v>12</v>
+      </c>
+      <c r="O36" s="6">
+        <v>-20</v>
+      </c>
+      <c r="P36" s="8">
+        <v>5</v>
+      </c>
+      <c r="T36" s="8">
+        <v>200</v>
+      </c>
+      <c r="X36">
+        <v>8000</v>
+      </c>
+      <c r="Y36">
+        <v>193</v>
+      </c>
+      <c r="Z36">
+        <v>159.928</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB36">
+        <v>32.875999999999998</v>
+      </c>
+      <c r="AC36">
+        <v>4.1094999999999899E-3</v>
+      </c>
+      <c r="AD36" s="9">
+        <v>243.33860566978899</v>
+      </c>
+      <c r="AE36">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="AF36">
+        <v>24.9999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37">
+        <v>20210219</v>
+      </c>
+      <c r="F37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="2">
+        <v>19</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37">
+        <v>11</v>
+      </c>
+      <c r="O37" s="6">
+        <v>-20</v>
+      </c>
+      <c r="P37" s="8">
+        <v>5</v>
+      </c>
+      <c r="T37" s="8">
+        <v>200</v>
+      </c>
+      <c r="X37">
+        <v>8000</v>
+      </c>
+      <c r="Y37">
+        <v>193</v>
+      </c>
+      <c r="Z37">
+        <v>159.928</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AB37">
+        <v>32.875999999999998</v>
+      </c>
+      <c r="AC37">
+        <v>4.1094999999999899E-3</v>
+      </c>
+      <c r="AD37" s="9">
+        <v>243.33860566978899</v>
+      </c>
+      <c r="AE37">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="AF37">
         <v>24.9999</v>
       </c>
     </row>

--- a/examples/dual-analysis/dual-database.xlsx
+++ b/examples/dual-analysis/dual-database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cudmore/Sites/SanPy/examples/dual-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A44FC-FB7B-0842-B2FE-BAE6949C6FEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCBF5CE-0CDC-BB42-9DDE-CABA42DE6E6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="740" windowWidth="27360" windowHeight="15760" xr2:uid="{8E007D05-730B-B14A-AC67-EF192B0933CD}"/>
   </bookViews>
@@ -565,7 +565,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +584,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -597,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -614,6 +620,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,25 +937,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD968B9-DDA8-7A49-B49C-B3EBA0FD8938}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane xSplit="26780" ySplit="820" topLeftCell="X14" activePane="bottomLeft"/>
-      <selection activeCell="X1" sqref="X1:AF1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="26780" ySplit="820" topLeftCell="X13" activePane="bottomLeft"/>
+      <selection activeCell="L1" sqref="L1:N1048576"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
       <selection pane="bottomRight" activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="8" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="0.1640625" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
     <col min="15" max="15" width="12.83203125" style="6" customWidth="1"/>
     <col min="16" max="16" width="12.83203125" style="8" customWidth="1"/>
@@ -2444,7 +2452,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
